--- a/Excel Dataframes, EDA and Predictive Modelling/Ligue1_rank.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Ligue1_rank.xlsx
@@ -538,129 +538,129 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.579000000000001</v>
+        <v>9.301</v>
       </c>
       <c r="E2" t="n">
-        <v>3.122</v>
+        <v>6.952999999999999</v>
       </c>
       <c r="F2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="L2" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>7.466</v>
+        <v>11.492</v>
       </c>
       <c r="E3" t="n">
-        <v>8.378</v>
+        <v>4.597</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L3" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
@@ -670,58 +670,58 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9.295999999999999</v>
+        <v>12.805</v>
       </c>
       <c r="E4" t="n">
-        <v>6.48</v>
+        <v>12.686</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
@@ -731,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>8.774000000000001</v>
+        <v>14.979</v>
       </c>
       <c r="E5" t="n">
-        <v>5.187</v>
+        <v>9.696</v>
       </c>
       <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>9</v>
@@ -752,153 +752,153 @@
         <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.2</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>7.29</v>
+        <v>15.451</v>
       </c>
       <c r="E6" t="n">
-        <v>6.861</v>
+        <v>8.281000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="L6" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.539000000000001</v>
+        <v>14.337</v>
       </c>
       <c r="E7" t="n">
-        <v>8.516</v>
+        <v>10.126</v>
       </c>
       <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="K7" t="n">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="L7" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -911,113 +911,113 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>10.139</v>
+        <v>14.026</v>
       </c>
       <c r="E8" t="n">
-        <v>11.376</v>
+        <v>13.32</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="K8" t="n">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L8" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="R8" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="S8" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>7.447</v>
+        <v>14.118</v>
       </c>
       <c r="E9" t="n">
-        <v>4.075</v>
+        <v>8.484</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="K9" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="L9" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Q9" t="n">
         <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S9" t="n">
         <v>0.5</v>
@@ -1026,306 +1026,306 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>7.68</v>
+        <v>15.449</v>
       </c>
       <c r="E10" t="n">
-        <v>8.544</v>
+        <v>10.624</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="K10" t="n">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="L10" t="n">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>9.183</v>
+        <v>4.295</v>
       </c>
       <c r="E11" t="n">
-        <v>6.019</v>
+        <v>7.345</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L11" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="P11" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="R11" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="S11" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>10.535</v>
+        <v>16.127</v>
       </c>
       <c r="E12" t="n">
-        <v>11.695</v>
+        <v>11.22</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L12" t="n">
         <v>97</v>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
         <v>14</v>
       </c>
       <c r="O12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R12" t="n">
         <v>0.5</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>9.453999999999999</v>
+        <v>7.198</v>
       </c>
       <c r="E13" t="n">
-        <v>15.114</v>
+        <v>7.173</v>
       </c>
       <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>77</v>
+      </c>
+      <c r="L13" t="n">
+        <v>51</v>
+      </c>
+      <c r="M13" t="n">
         <v>8</v>
       </c>
-      <c r="G13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K13" t="n">
-        <v>66</v>
-      </c>
-      <c r="L13" t="n">
-        <v>110</v>
-      </c>
-      <c r="M13" t="n">
-        <v>12</v>
-      </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="P13" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="S13" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>13.725</v>
+        <v>4.077999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>8.876999999999999</v>
+        <v>5.772</v>
       </c>
       <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>39</v>
+      </c>
+      <c r="L14" t="n">
+        <v>36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>88</v>
-      </c>
-      <c r="L14" t="n">
-        <v>65</v>
-      </c>
-      <c r="M14" t="n">
-        <v>23</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13</v>
-      </c>
       <c r="O14" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1338,183 +1338,183 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>7.278</v>
+        <v>11.345</v>
       </c>
       <c r="E15" t="n">
-        <v>7.296</v>
+        <v>10.222</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
         <v>-4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="K15" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L15" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="R15" t="n">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="S15" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0.609</v>
+        <v>10.006</v>
       </c>
       <c r="E16" t="n">
-        <v>2.281</v>
+        <v>14.23</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>65</v>
+      </c>
+      <c r="L16" t="n">
+        <v>94</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>13</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>3.121</v>
+        <v>0.82</v>
       </c>
       <c r="E17" t="n">
-        <v>12.241</v>
+        <v>4.873</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="K17" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="R17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -1524,98 +1524,98 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>9.870999999999999</v>
+        <v>6.14</v>
       </c>
       <c r="E18" t="n">
-        <v>8.565</v>
+        <v>8.134</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="L18" t="n">
         <v>64</v>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>3.664</v>
+        <v>3.196</v>
       </c>
       <c r="E19" t="n">
-        <v>4.536</v>
+        <v>9.895</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L19" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
@@ -1627,71 +1627,71 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>8.843999999999999</v>
+        <v>7.519</v>
       </c>
       <c r="E20" t="n">
-        <v>15.942</v>
+        <v>14.424</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="L20" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O20" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="P20" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="S20" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="21">
@@ -1704,83 +1704,83 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>5.672</v>
+        <v>7.211</v>
       </c>
       <c r="E21" t="n">
-        <v>6.818000000000001</v>
+        <v>9.806000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K21" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L21" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="S21" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>2.73</v>
+        <v>4.857</v>
       </c>
       <c r="E22" t="n">
-        <v>5.053</v>
+        <v>6.779999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1789,22 +1789,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L22" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -1826,22 +1826,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.897</v>
+        <v>2.969</v>
       </c>
       <c r="E23" t="n">
-        <v>1.735</v>
+        <v>2.438</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1850,31 +1850,31 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -1996,62 +1996,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>15.52</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13.261</v>
+        <v>4.845</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80</v>
+      </c>
+      <c r="L2" t="n">
+        <v>29</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
         <v>8</v>
       </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>112</v>
-      </c>
-      <c r="L2" t="n">
-        <v>101</v>
-      </c>
-      <c r="M2" t="n">
-        <v>23</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -2064,793 +2064,793 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>13.212</v>
+        <v>10.207</v>
       </c>
       <c r="E3" t="n">
-        <v>5.004</v>
+        <v>3.886</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="K3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="L3" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>17.15</v>
+        <v>9.724</v>
       </c>
       <c r="E4" t="n">
-        <v>7.033</v>
+        <v>9.584</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="K4" t="n">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="L4" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="P4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="R4" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="S4" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.263</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.089</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>15.335</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="K5" t="n">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L5" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>18</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="S5" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>19.978</v>
+        <v>19.33</v>
       </c>
       <c r="E6" t="n">
-        <v>14.45</v>
+        <v>11.553</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="K6" t="n">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="L6" t="n">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M6" t="n">
         <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O6" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.33</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.58</v>
-      </c>
       <c r="R6" t="n">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>13.469</v>
+        <v>2.155</v>
       </c>
       <c r="E7" t="n">
-        <v>8.242000000000001</v>
+        <v>2.283</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="L7" t="n">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="S7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.402000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.316</v>
+      </c>
+      <c r="F8" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
-        <v>16.705</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.017</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19</v>
-      </c>
       <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16</v>
-      </c>
       <c r="J8" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="L8" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.974</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.244</v>
+      </c>
+      <c r="F9" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.826</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16</v>
-      </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L9" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P9" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="S9" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>15.35</v>
+        <v>14.838</v>
       </c>
       <c r="E10" t="n">
-        <v>8.096</v>
+        <v>13.806</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="K10" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="L10" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="R10" t="n">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="S10" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.511</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.833</v>
-      </c>
-      <c r="F11" t="n">
-        <v>20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>18</v>
-      </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K11" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="L11" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>8.731</v>
+        <v>17.902</v>
       </c>
       <c r="E12" t="n">
-        <v>11.34</v>
+        <v>13.916</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="L12" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="R12" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="S12" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>5.83</v>
+        <v>13.939</v>
       </c>
       <c r="E13" t="n">
-        <v>7.87</v>
+        <v>11.2</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="K13" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="L13" t="n">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>5.619</v>
+        <v>14.653</v>
       </c>
       <c r="E14" t="n">
-        <v>7.238</v>
+        <v>13.875</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="K14" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="L14" t="n">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.133</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.824</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54</v>
+      </c>
+      <c r="L15" t="n">
+        <v>67</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" t="n">
         <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19.567</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.804</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>171</v>
-      </c>
-      <c r="L15" t="n">
-        <v>146</v>
-      </c>
-      <c r="M15" t="n">
-        <v>25</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14</v>
       </c>
       <c r="O15" t="n">
         <v>0.6</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
@@ -2860,16 +2860,16 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>6.651</v>
+        <v>9.628</v>
       </c>
       <c r="E16" t="n">
-        <v>7.452999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
         <v>6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7</v>
       </c>
       <c r="H16" t="n">
         <v>-1</v>
@@ -2881,77 +2881,77 @@
         <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>13.974</v>
+        <v>3.655</v>
       </c>
       <c r="E17" t="n">
-        <v>12.273</v>
+        <v>6.113</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="L17" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="M17" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>0.67</v>
@@ -2960,19 +2960,19 @@
         <v>0.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="R17" t="n">
         <v>0.33</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -2982,43 +2982,43 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3.348</v>
+        <v>0.384</v>
       </c>
       <c r="E18" t="n">
-        <v>4.527</v>
+        <v>4.619</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12</v>
+      </c>
+      <c r="L18" t="n">
+        <v>42</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>5</v>
       </c>
-      <c r="H18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>31</v>
-      </c>
-      <c r="L18" t="n">
-        <v>30</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
       <c r="O18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Q18" t="n">
         <v>0.33</v>
@@ -3033,62 +3033,62 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0.595</v>
+        <v>13.331</v>
       </c>
       <c r="E19" t="n">
-        <v>7.211</v>
+        <v>14.028</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="K19" t="n">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="L19" t="n">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P19" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="R19" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="20">
@@ -3101,80 +3101,80 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>13.761</v>
+        <v>10.754</v>
       </c>
       <c r="E20" t="n">
-        <v>15.225</v>
+        <v>12.133</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="I20" t="n">
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="K20" t="n">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="L20" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N20" t="n">
         <v>21</v>
       </c>
       <c r="O20" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="P20" t="n">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="R20" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S20" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>11.396</v>
+        <v>5.128</v>
       </c>
       <c r="E21" t="n">
-        <v>13.338</v>
+        <v>11.421</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
         <v>-8</v>
@@ -3183,34 +3183,34 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="K21" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="L21" t="n">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="P21" t="n">
         <v>0.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="R21" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S21" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -3223,55 +3223,55 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.682</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>51</v>
+      </c>
+      <c r="L22" t="n">
+        <v>47</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="n">
-        <v>4.736</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.385</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>70</v>
-      </c>
-      <c r="L22" t="n">
-        <v>55</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
       <c r="O22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
@@ -3287,19 +3287,19 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.516</v>
+        <v>1.441</v>
       </c>
       <c r="E23" t="n">
-        <v>6.03</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -3308,22 +3308,22 @@
         <v>0.25</v>
       </c>
       <c r="K23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -3698,129 +3698,129 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>16.264</v>
+        <v>6.433</v>
       </c>
       <c r="E6" t="n">
-        <v>5.125</v>
+        <v>3.614</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>56</v>
+      </c>
+      <c r="L6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K6" t="n">
-        <v>108</v>
-      </c>
-      <c r="L6" t="n">
-        <v>61</v>
-      </c>
-      <c r="M6" t="n">
-        <v>22</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
       <c r="O6" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="R6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.264</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.184</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.187</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K7" t="n">
+        <v>108</v>
+      </c>
+      <c r="L7" t="n">
+        <v>61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22</v>
+      </c>
+      <c r="N7" t="n">
         <v>7</v>
       </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>48</v>
-      </c>
-      <c r="L7" t="n">
-        <v>39</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
@@ -3830,49 +3830,49 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>20.126</v>
+        <v>13.761</v>
       </c>
       <c r="E8" t="n">
-        <v>4.587</v>
+        <v>5.336</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>103</v>
+      </c>
+      <c r="L8" t="n">
+        <v>55</v>
+      </c>
+      <c r="M8" t="n">
         <v>17</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K8" t="n">
-        <v>132</v>
-      </c>
-      <c r="L8" t="n">
-        <v>49</v>
-      </c>
-      <c r="M8" t="n">
-        <v>24</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
       </c>
       <c r="O8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.71</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.86</v>
       </c>
       <c r="S8" t="n">
         <v>0.14</v>
@@ -3881,81 +3881,81 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>13.761</v>
+        <v>7.87</v>
       </c>
       <c r="E9" t="n">
-        <v>5.336</v>
+        <v>1.87</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
         <v>11</v>
       </c>
-      <c r="I9" t="n">
-        <v>16</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="L9" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="P9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="S9" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>14.623</v>
+        <v>19.283</v>
       </c>
       <c r="E10" t="n">
-        <v>7.81</v>
+        <v>5.889</v>
       </c>
       <c r="F10" t="n">
         <v>15</v>
@@ -3967,104 +3967,104 @@
         <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="K10" t="n">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="P10" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R10" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="S10" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.093</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
         <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="K11" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="L11" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
@@ -4074,37 +4074,37 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>19.283</v>
+        <v>20.358</v>
       </c>
       <c r="E12" t="n">
-        <v>5.889</v>
+        <v>6.512</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>148</v>
+      </c>
+      <c r="L12" t="n">
+        <v>58</v>
+      </c>
+      <c r="M12" t="n">
+        <v>23</v>
+      </c>
+      <c r="N12" t="n">
         <v>8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="K12" t="n">
-        <v>115</v>
-      </c>
-      <c r="L12" t="n">
-        <v>76</v>
-      </c>
-      <c r="M12" t="n">
-        <v>28</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>0.86</v>
@@ -4125,428 +4125,428 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8.978</v>
+        <v>11.024</v>
       </c>
       <c r="E13" t="n">
-        <v>4.072</v>
+        <v>8.544</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L13" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>11.024</v>
+        <v>1.222</v>
       </c>
       <c r="E14" t="n">
-        <v>8.544</v>
+        <v>2.722</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="L14" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="S14" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.222</v>
+        <v>10.534</v>
       </c>
       <c r="E15" t="n">
-        <v>2.722</v>
+        <v>5.688000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="L15" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>9.885</v>
+        <v>12.042</v>
       </c>
       <c r="E16" t="n">
-        <v>7.448</v>
+        <v>6.26</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="K16" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L16" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S16" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>12.042</v>
+        <v>10.848</v>
       </c>
       <c r="E17" t="n">
-        <v>6.26</v>
+        <v>9.811999999999999</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="K17" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="P17" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="R17" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="S17" t="n">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>11.569</v>
+        <v>5.133</v>
       </c>
       <c r="E18" t="n">
-        <v>5.301</v>
+        <v>2.33</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="L18" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M18" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>0.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.569</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.301</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>84</v>
+      </c>
+      <c r="L19" t="n">
+        <v>52</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
         <v>7</v>
       </c>
-      <c r="D19" t="n">
-        <v>12.093</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.532</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K19" t="n">
-        <v>96</v>
-      </c>
-      <c r="L19" t="n">
-        <v>74</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4</v>
-      </c>
       <c r="O19" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="P19" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="R19" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="S19" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -4559,13 +4559,13 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>11.286</v>
+        <v>10.591</v>
       </c>
       <c r="E20" t="n">
-        <v>9.035</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F20" t="n">
         <v>13</v>
@@ -4577,16 +4577,16 @@
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="K20" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L20" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M20" t="n">
         <v>13</v>
@@ -4595,80 +4595,80 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="P20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="R20" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>5.357</v>
+        <v>9.144</v>
       </c>
       <c r="E21" t="n">
-        <v>3.899</v>
+        <v>4.269</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="L21" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0.33</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="22">
@@ -4922,19 +4922,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>11.533</v>
+        <v>12.136</v>
       </c>
       <c r="E2" t="n">
-        <v>8.413</v>
+        <v>9.834</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
@@ -4943,25 +4943,25 @@
         <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L2" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
         <v>14</v>
       </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -4980,116 +4980,116 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.34</v>
+        <v>6.827</v>
       </c>
       <c r="E3" t="n">
-        <v>7.752</v>
+        <v>8.666</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L3" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M3" t="n">
         <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>8.848000000000001</v>
+        <v>3.284</v>
       </c>
       <c r="E4" t="n">
-        <v>9.507999999999999</v>
+        <v>3.057</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="K4" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L4" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -5102,183 +5102,183 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>9.722</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>13.471</v>
+        <v>14.334</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="L5" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O5" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="P5" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="S5" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.634</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>12.354</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.432</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+      <c r="L6" t="n">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
         <v>11</v>
       </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>72</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68</v>
-      </c>
-      <c r="M6" t="n">
-        <v>18</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15</v>
-      </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.091</v>
+        <v>5.17</v>
       </c>
       <c r="E7" t="n">
-        <v>4.887</v>
+        <v>9.733000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L7" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="P7" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
@@ -5288,19 +5288,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>6.602</v>
+        <v>4.602</v>
       </c>
       <c r="E8" t="n">
-        <v>9.562000000000001</v>
+        <v>10.331</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -5309,28 +5309,28 @@
         <v>0.8</v>
       </c>
       <c r="K8" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L8" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S8" t="n">
         <v>0.6</v>
@@ -5339,7 +5339,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -5349,19 +5349,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>4.602</v>
+        <v>7.004</v>
       </c>
       <c r="E9" t="n">
-        <v>10.331</v>
+        <v>10.655</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -5370,28 +5370,28 @@
         <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>0.4</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" t="n">
         <v>0.2</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S9" t="n">
         <v>0.6</v>
@@ -5400,7 +5400,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -5410,19 +5410,19 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>3.241</v>
+        <v>4.898</v>
       </c>
       <c r="E10" t="n">
-        <v>12.17</v>
+        <v>5.554</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -5431,37 +5431,37 @@
         <v>0.75</v>
       </c>
       <c r="K10" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L10" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P10" t="n">
         <v>0.25</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
@@ -5471,19 +5471,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>6.523</v>
+        <v>4.967000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9.303000000000001</v>
+        <v>11.008</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -5492,31 +5492,31 @@
         <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L11" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="M11" t="n">
         <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.6</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.4</v>
-      </c>
       <c r="S11" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -5529,224 +5529,224 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>6.631</v>
+        <v>5.141</v>
       </c>
       <c r="E12" t="n">
-        <v>13.411</v>
+        <v>9.802</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L12" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="S12" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.712</v>
+        <v>8.426</v>
       </c>
       <c r="E13" t="n">
-        <v>8.9</v>
+        <v>8.481</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
         <v>-3</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L13" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.309</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="F14" t="n">
         <v>6</v>
       </c>
-      <c r="D14" t="n">
-        <v>5.716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.278</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="K14" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="L14" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4.823</v>
+        <v>5.153</v>
       </c>
       <c r="E15" t="n">
-        <v>11.692</v>
+        <v>8.352</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
       </c>
       <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>56</v>
+      </c>
+      <c r="L15" t="n">
+        <v>63</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
         <v>9</v>
       </c>
-      <c r="H15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40</v>
-      </c>
-      <c r="L15" t="n">
-        <v>91</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14</v>
-      </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
@@ -5757,123 +5757,123 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1.91</v>
+        <v>4.371</v>
       </c>
       <c r="E16" t="n">
-        <v>5.154</v>
+        <v>13.651</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K16" t="n">
+        <v>48</v>
+      </c>
+      <c r="L16" t="n">
+        <v>108</v>
+      </c>
+      <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21</v>
-      </c>
-      <c r="L16" t="n">
-        <v>35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O16" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="S16" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>5.098</v>
+        <v>0.865</v>
       </c>
       <c r="E17" t="n">
-        <v>12.966</v>
+        <v>6.203</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
         <v>-11</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -5888,29 +5888,29 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.865</v>
+        <v>5.269</v>
       </c>
       <c r="E18" t="n">
-        <v>6.203</v>
+        <v>18.12</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -5919,98 +5919,98 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.641</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>26</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
         <v>8</v>
       </c>
-      <c r="D19" t="n">
-        <v>6.175</v>
-      </c>
-      <c r="E19" t="n">
-        <v>20.437</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>22</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>82</v>
-      </c>
-      <c r="L19" t="n">
-        <v>114</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>26</v>
-      </c>
       <c r="O19" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="P19" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="S19" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
@@ -6020,10 +6020,10 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>3.222</v>
+        <v>4.263</v>
       </c>
       <c r="E20" t="n">
-        <v>11.514</v>
+        <v>8.243</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -6041,16 +6041,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L20" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>0.4</v>
@@ -6071,29 +6071,29 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1.859</v>
+        <v>0.855</v>
       </c>
       <c r="E21" t="n">
-        <v>4.16</v>
+        <v>9.264000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -6102,31 +6102,31 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L21" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -6139,22 +6139,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.731</v>
+        <v>1.187</v>
       </c>
       <c r="E22" t="n">
-        <v>1.79</v>
+        <v>5.363</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -6163,31 +6163,31 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -6203,19 +6203,19 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.263</v>
+        <v>0.406</v>
       </c>
       <c r="E23" t="n">
-        <v>3.758</v>
+        <v>4.029</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -6227,19 +6227,19 @@
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -6377,196 +6377,196 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>16.544</v>
+        <v>17.788</v>
       </c>
       <c r="E2" t="n">
-        <v>16.141</v>
+        <v>17.276</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>2.29</v>
+        <v>2.12</v>
       </c>
       <c r="K2" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L2" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="R2" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="S2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>13.535</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.594</v>
+        <v>10.449</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="L3" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>0.38</v>
+        <v>0.83</v>
       </c>
       <c r="P3" t="n">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S3" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.431999999999999</v>
+        <v>9.427</v>
       </c>
       <c r="E4" t="n">
-        <v>6.671</v>
+        <v>13.014</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>7.268</v>
+        <v>10.236</v>
       </c>
       <c r="E5" t="n">
-        <v>11.312</v>
+        <v>16.034</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -6578,226 +6578,226 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="K5" t="n">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="L5" t="n">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>13.496</v>
+        <v>14.072</v>
       </c>
       <c r="E6" t="n">
-        <v>20.613</v>
+        <v>15.204</v>
       </c>
       <c r="F6" t="n">
         <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="L6" t="n">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="P6" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="R6" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="S6" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>17.113</v>
+        <v>16.586</v>
       </c>
       <c r="E7" t="n">
-        <v>25.338</v>
+        <v>15.016</v>
       </c>
       <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
       <c r="H7" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="K7" t="n">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L7" t="n">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="O7" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="P7" t="n">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="R7" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="S7" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.231</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="F8" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
-        <v>16.111</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.409</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22</v>
-      </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="K8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="L8" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -6807,49 +6807,49 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>12.619</v>
+        <v>14.962</v>
       </c>
       <c r="E9" t="n">
-        <v>14.169</v>
+        <v>17.272</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="K9" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="R9" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="S9" t="n">
         <v>0.5600000000000001</v>
@@ -6858,7 +6858,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -6868,293 +6868,293 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>11.026</v>
+        <v>12.831</v>
       </c>
       <c r="E10" t="n">
-        <v>13.318</v>
+        <v>9.811999999999999</v>
       </c>
       <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>122</v>
+      </c>
+      <c r="L10" t="n">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17</v>
+      </c>
+      <c r="N10" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>105</v>
-      </c>
-      <c r="L10" t="n">
-        <v>127</v>
-      </c>
-      <c r="M10" t="n">
-        <v>16</v>
-      </c>
-      <c r="N10" t="n">
-        <v>19</v>
-      </c>
       <c r="O10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.38</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0.25</v>
-      </c>
       <c r="R10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.597</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.066</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n">
+        <v>48</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
         <v>8</v>
       </c>
-      <c r="D11" t="n">
-        <v>7.583</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.161</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>94</v>
-      </c>
-      <c r="L11" t="n">
-        <v>110</v>
-      </c>
-      <c r="M11" t="n">
-        <v>9</v>
-      </c>
-      <c r="N11" t="n">
-        <v>16</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="P11" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R11" t="n">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="S11" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.337999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.988</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
-        <v>8.548999999999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17.949</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="K12" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="L12" t="n">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="M12" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" t="n">
         <v>13</v>
       </c>
-      <c r="N12" t="n">
-        <v>22</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R12" t="n">
         <v>0.5</v>
       </c>
       <c r="S12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>11.746</v>
+        <v>14.294</v>
       </c>
       <c r="E13" t="n">
-        <v>10.975</v>
+        <v>13.146</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="K13" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L13" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O13" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="P13" t="n">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>3.053</v>
+        <v>9.081</v>
       </c>
       <c r="E14" t="n">
-        <v>9.638999999999999</v>
+        <v>13.24</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K14" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="L14" t="n">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P14" t="n">
         <v>0.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="R14" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="S14" t="n">
         <v>0.25</v>
@@ -7163,7 +7163,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
@@ -7173,296 +7173,296 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>11.426</v>
+        <v>12.651</v>
       </c>
       <c r="E15" t="n">
-        <v>13.061</v>
+        <v>17.067</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="K15" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L15" t="n">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O15" t="n">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="P15" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.22</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0.11</v>
-      </c>
       <c r="R15" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="S15" t="n">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>7.731999999999999</v>
+        <v>10.039</v>
       </c>
       <c r="E16" t="n">
-        <v>15.375</v>
+        <v>21.558</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>98</v>
+      </c>
+      <c r="L16" t="n">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
         <v>14</v>
       </c>
-      <c r="H16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K16" t="n">
-        <v>78</v>
-      </c>
-      <c r="L16" t="n">
-        <v>129</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8</v>
-      </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O16" t="n">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="R16" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="S16" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.447</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I17" t="n">
         <v>8</v>
       </c>
-      <c r="D17" t="n">
-        <v>9.257</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10.661</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K17" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L17" t="n">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O17" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="R17" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S17" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>5.286</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>12.683</v>
+        <v>13.087</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="K18" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L18" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O18" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="P18" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6.606</v>
+        <v>4.893000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.202</v>
+        <v>15.563</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="K19" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L19" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O19" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="P19" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="S19" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -7475,55 +7475,55 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>7.736</v>
+        <v>7.249</v>
       </c>
       <c r="E20" t="n">
-        <v>9.473000000000001</v>
+        <v>8.558999999999999</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="K20" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L20" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="R20" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="S20" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="21">
@@ -7536,55 +7536,55 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.663</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.839</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>-8</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K21" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22">
@@ -7661,19 +7661,19 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>1.468</v>
+        <v>1.325</v>
       </c>
       <c r="E23" t="n">
-        <v>7.984999999999999</v>
+        <v>7.714</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -7685,19 +7685,19 @@
         <v>20</v>
       </c>
       <c r="L23" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -8072,190 +8072,190 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>21.526</v>
+        <v>3.758</v>
       </c>
       <c r="E6" t="n">
-        <v>9.568</v>
+        <v>3.851</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="M6" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.67</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.33</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>9.741</v>
+        <v>20.06</v>
       </c>
       <c r="E7" t="n">
-        <v>9.454000000000001</v>
+        <v>9.291</v>
       </c>
       <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="L7" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="P7" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="R7" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="S7" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>6.712</v>
+        <v>9.741</v>
       </c>
       <c r="E8" t="n">
-        <v>5.286</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="L8" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="P8" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="R8" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -8265,363 +8265,363 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>7.692</v>
+        <v>6.712</v>
       </c>
       <c r="E9" t="n">
-        <v>6.426</v>
+        <v>5.286</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L9" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M9" t="n">
         <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.591</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>114</v>
+      </c>
+      <c r="L10" t="n">
+        <v>54</v>
+      </c>
+      <c r="M10" t="n">
+        <v>18</v>
+      </c>
+      <c r="N10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>6.952999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.905</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>45</v>
-      </c>
-      <c r="L10" t="n">
-        <v>59</v>
-      </c>
-      <c r="M10" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
       <c r="O10" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>10.079</v>
+        <v>7.692</v>
       </c>
       <c r="E11" t="n">
-        <v>8.472</v>
+        <v>6.426</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="K11" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="L11" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="P11" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="R11" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="S11" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>10.886</v>
+        <v>9.673</v>
       </c>
       <c r="E12" t="n">
-        <v>9.704000000000001</v>
+        <v>7.856</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
         <v>11</v>
       </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K12" t="n">
+        <v>77</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75</v>
+      </c>
+      <c r="M12" t="n">
         <v>12</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K12" t="n">
-        <v>72</v>
-      </c>
-      <c r="L12" t="n">
-        <v>79</v>
-      </c>
-      <c r="M12" t="n">
-        <v>16</v>
-      </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R12" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="S12" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.952999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="F13" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="n">
-        <v>6.654999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.292</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>59</v>
+      </c>
+      <c r="M13" t="n">
         <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K13" t="n">
-        <v>61</v>
-      </c>
-      <c r="L13" t="n">
-        <v>76</v>
-      </c>
-      <c r="M13" t="n">
-        <v>8</v>
       </c>
       <c r="N13" t="n">
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P13" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>2.327</v>
+        <v>10.886</v>
       </c>
       <c r="E14" t="n">
-        <v>4.54</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="K14" t="n">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="L14" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="S14" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
@@ -8631,19 +8631,19 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4.08</v>
+        <v>2.327</v>
       </c>
       <c r="E15" t="n">
-        <v>2.646</v>
+        <v>4.54</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -8652,28 +8652,28 @@
         <v>1.67</v>
       </c>
       <c r="K15" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.67</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="R15" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0.33</v>
@@ -8682,184 +8682,184 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.646</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>9.286</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.353</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K16" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="L16" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.086</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.068</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
         <v>7</v>
       </c>
-      <c r="D17" t="n">
-        <v>13.523</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.116</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="n">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="L17" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="P17" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="R17" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="S17" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>1.394</v>
+        <v>15.438</v>
       </c>
       <c r="E18" t="n">
-        <v>2.888</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L18" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
@@ -8994,55 +8994,55 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>5.962999999999999</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>11.025</v>
+        <v>8.076000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L21" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
